--- a/paper_slides/tables/skeletons/latex_test_widetable.xlsx
+++ b/paper_slides/tables/skeletons/latex_test_widetable.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sameernair-desai/Desktop/InstRes/SIEPR_RA/template/paper_slides/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sameernair-desai/Desktop/InstRes/SIEPR_RA/template/paper_slides/tables/skeletons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF023910-6C53-8048-BB4D-2B68C1C8C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F6CE5-37B7-C242-8795-A35B46A7E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38080" yWindow="3020" windowWidth="34360" windowHeight="17440" activeTab="1" xr2:uid="{B390F614-ADA4-ED45-B7F9-CAB4E813F00D}"/>
+    <workbookView xWindow="34280" yWindow="3020" windowWidth="34360" windowHeight="17440" activeTab="1" xr2:uid="{B390F614-ADA4-ED45-B7F9-CAB4E813F00D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scalars" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Group 5</t>
-  </si>
-  <si>
-    <t>###</t>
   </si>
   <si>
     <t>Condition 1</t>
@@ -188,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -208,13 +205,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D491D851-0BDE-2243-9EB9-D84ECB9E783F}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,174 +553,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -730,7 +641,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,22 +653,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -787,7 +698,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
         <v>3436123</v>
@@ -807,7 +718,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <f>B5*0.85</f>
@@ -832,7 +743,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6">
         <f>0.23*B6</f>
@@ -857,7 +768,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <f>0.45*B7</f>
@@ -882,7 +793,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <f>0.12*B8</f>
@@ -907,7 +818,7 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <f>(B5-B9)/B5</f>
